--- a/biology/Zoologie/Ammonitida/Ammonitida.xlsx
+++ b/biology/Zoologie/Ammonitida/Ammonitida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ammonitida ou ammonites « vraies », sont des mollusques céphalopodes marins aujourd’hui éteints qui constituent un ordre de la sous-classe des Ammonoidea[Note 1].
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ammonitida représentent les céphalopodes les plus évolués parmi les ammonoïdés (Ammonoidea)[1]. Les  Ammonitida se différencient des autres ammonoïdés des ordres précédents (goniatites, cératites…) par la forme des lignes de sutures qui séparent leurs loges internes qui referment leur gaz de ballastage. Ces lignes de sutures sont très découpées en petits lobes, elles sont dites « persillées » par opposition aux lobes simples des cératites, ou en zigzag des goniatites[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ammonitida représentent les céphalopodes les plus évolués parmi les ammonoïdés (Ammonoidea). Les  Ammonitida se différencient des autres ammonoïdés des ordres précédents (goniatites, cératites…) par la forme des lignes de sutures qui séparent leurs loges internes qui referment leur gaz de ballastage. Ces lignes de sutures sont très découpées en petits lobes, elles sont dites « persillées » par opposition aux lobes simples des cératites, ou en zigzag des goniatites.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ammonitida sont apparues à la fin du système du Trias pour se développer pleinement au cours des deux systèmes suivants : le Jurassique et le Crétacé[2],[3].
-Elles disparaissent à la fin de ce dernier système lors de l’extinction du Crétacé, en même temps que les dinosaures, il y a 66 millions d’années[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ammonitida sont apparues à la fin du système du Trias pour se développer pleinement au cours des deux systèmes suivants : le Jurassique et le Crétacé,.
+Elles disparaissent à la fin de ce dernier système lors de l’extinction du Crétacé, en même temps que les dinosaures, il y a 66 millions d’années.
 </t>
         </is>
       </c>
@@ -576,18 +592,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ambiguïté du terme « ammonite »
-Si le terme « ammonite » est plutôt utilisé pour désigner les Ammonitida, il peut être également employé, dans une acception plus large, pour parler des Ammonoidea en général.
+          <t>Ambiguïté du terme « ammonite »</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le terme « ammonite » est plutôt utilisé pour désigner les Ammonitida, il peut être également employé, dans une acception plus large, pour parler des Ammonoidea en général.
 Pour cette raison, le terme « ammonite » n’a pas de valeur taxonomique.
-Liste des sous-ordres
-L’ordre des Ammonitida est subdivisé en quatre sous-ordres :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ammonitida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammonitida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-ordres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ordre des Ammonitida est subdivisé en quatre sous-ordres :
 Ammonitina  ;
 Phylloceratina  ;
 Lytoceratina ;
 Ancyloceratina, lequel est parfois rattaché aux Lytoceratina.
-Les Ammonitida sont apparues à la fin du Trias. Elles sont les descendantes des cératidés qui ont dominé le Permien et le Trias[3]. À partir de la base du Jurassique, les premières Ammonitida (Phylloceratina et Lytoceratina) ont donné naissance aux ammonites du sous-ordre des Ammonitina qui sont strictement d’âge jurassique et crétacé[2].
-Liste des super-familles et familles
-Les différents taxons sont présentés ici par ordre alphabétique. Aucune information stratigraphique ou phylogénétique ne peut en être déduite.
+Les Ammonitida sont apparues à la fin du Trias. Elles sont les descendantes des cératidés qui ont dominé le Permien et le Trias. À partir de la base du Jurassique, les premières Ammonitida (Phylloceratina et Lytoceratina) ont donné naissance aux ammonites du sous-ordre des Ammonitina qui sont strictement d’âge jurassique et crétacé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ammonitida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ammonitida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des super-familles et familles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différents taxons sont présentés ici par ordre alphabétique. Aucune information stratigraphique ou phylogénétique ne peut en être déduite.
 sous-ordre Ammonitina
 super-famille Acanthoceratoidea ou Acanthocerataceae
 famille Acanthoceratidae
